--- a/sampling_grids_metrics.xlsx
+++ b/sampling_grids_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulgubbins/Documents/Github/cfi-map2-grids-ee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231A6569-8205-004A-B4D7-A63D46D4FB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D2237-25EB-9744-9914-C8600719E4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="1900" windowWidth="13380" windowHeight="12580" xr2:uid="{A8DCF4BF-D130-2B46-BACF-4D771FB0CDE9}"/>
   </bookViews>

--- a/sampling_grids_metrics.xlsx
+++ b/sampling_grids_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulgubbins/Documents/Github/cfi-map2-grids-ee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974D2237-25EB-9744-9914-C8600719E4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF1F1F4-8EA1-B24C-AFAB-D61DD6008E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="1900" windowWidth="13380" windowHeight="12580" xr2:uid="{A8DCF4BF-D130-2B46-BACF-4D771FB0CDE9}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="24720" windowHeight="18200" xr2:uid="{A8DCF4BF-D130-2B46-BACF-4D771FB0CDE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>City</t>
   </si>
@@ -65,29 +65,124 @@
     <t>Lagos, Nigeria</t>
   </si>
   <si>
-    <t>Total area covered by sampling boundary (km2)</t>
-  </si>
-  <si>
-    <t>Total area of 'built' blocks in final sampling grid (km2)</t>
-  </si>
-  <si>
-    <t>Total number of 'built' blocks (150m x 150m in final sampling grid)</t>
-  </si>
-  <si>
-    <t>Five of twenty local government areas in Lagos State: Lagos Mainland, Lagos Island, Eti-Osa, Apapa, Surulere</t>
-  </si>
-  <si>
-    <t>All eleven districts in Delhi state (National capital territory): North, North West, North East, Central, Shahdara, East, South East, South, New Delhi, South West, West</t>
-  </si>
-  <si>
-    <t>Five of six administrative cities in Jakarta Province:  Jakarta Barat, Jakarta Pusat, Jakarta Selatan, Jakarta Timur,  Jakarta Utara</t>
+    <t>All eleven districts in Delhi state: North, North West, North East, Central, Shahdara, East, South East, South, New Delhi, South West, West</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Five of twenty local government areas in Lagos State*: Lagos Mainland, Lagos Island, Eti-Osa, Apapa, Surulere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* These five LGAs correspond to those in the Lagos [Eko] administrative division of Lagos state: https://lagosstate.gov.ng/about-lagos/ </t>
+  </si>
+  <si>
+    <t>Five of six administrative cities in Jakarta Province*:  Jakarta Barat, Jakarta Pusat, Jakarta Selatan, Jakarta Timur,  Jakarta Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*The Kepulauan Seribu regency which is comprised of small islands off the mainland is excluded. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total area covered by sampling </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>boundary</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (km2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>'built' blocks</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (150m x 150m) in final sampling grid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>area</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of 'built' blocks in final sampling grid (km2)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,6 +214,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -207,6 +309,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A1D4F0-0F86-FD43-BD3D-C7542E8D7D36}">
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,9 +668,10 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,16 +679,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -589,12 +708,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>650</v>
@@ -605,13 +724,16 @@
       <c r="E4" s="8">
         <v>593</v>
       </c>
+      <c r="F4" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9">
         <v>1925</v>
@@ -622,8 +744,9 @@
       <c r="E5" s="10">
         <v>893</v>
       </c>
+      <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -640,12 +763,12 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="13">
         <v>266</v>
@@ -655,6 +778,9 @@
       </c>
       <c r="E7" s="15">
         <v>208</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sampling_grids_metrics.xlsx
+++ b/sampling_grids_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulgubbins/Documents/Github/cfi-map2-grids-ee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF1F1F4-8EA1-B24C-AFAB-D61DD6008E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BEA69A-1A1F-4D4C-A70E-3F8BCADA55B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="24720" windowHeight="18200" xr2:uid="{A8DCF4BF-D130-2B46-BACF-4D771FB0CDE9}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
